--- a/CodeResearch/DataExperiments/Megamarket/megamarket_rating.xlsx
+++ b/CodeResearch/DataExperiments/Megamarket/megamarket_rating.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Sigma</t>
+          <t>3xSigma</t>
         </is>
       </c>
     </row>
